--- a/01-Prevendo-valores-no-Excel/Apartamentos_Relatorio.xlsx
+++ b/01-Prevendo-valores-no-Excel/Apartamentos_Relatorio.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-allta\Desktop\ML Solutionlet 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-allta\Documents\GitHub\AzureSolutionlets\01-Prevendo-valores-no-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Apartamentos" sheetId="1" r:id="rId1"/>
-    <sheet name="Gorjetas" sheetId="2" r:id="rId2"/>
+    <sheet name="Apartamentos - Simples" sheetId="1" r:id="rId1"/>
+    <sheet name="Apartamentos - Multipla" sheetId="3" r:id="rId2"/>
+    <sheet name="Gorjetas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,18 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>M²</t>
   </si>
   <si>
     <t>Gorjetas/Mês</t>
-  </si>
-  <si>
-    <t>Coef Lin</t>
-  </si>
-  <si>
-    <t>Coef Ang</t>
   </si>
   <si>
     <t>Métodos Tradicionais</t>
@@ -165,7 +160,13 @@
     </r>
   </si>
   <si>
-    <t>Machine Learning</t>
+    <t>Quartos</t>
+  </si>
+  <si>
+    <t>Vagas na Garagem</t>
+  </si>
+  <si>
+    <t>Suítes</t>
   </si>
 </sst>
 </file>
@@ -175,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +220,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,11 +243,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -246,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,19 +279,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -334,7 +436,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Apartamentos!$B$1</c:f>
+              <c:f>'Apartamentos - Simples'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -495,7 +597,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Apartamentos!$A$2:$A$33</c:f>
+              <c:f>'Apartamentos - Simples'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -600,7 +702,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Apartamentos!$B$2:$B$33</c:f>
+              <c:f>'Apartamentos - Simples'!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1109,12 +1211,12 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21839807524059493"/>
-                  <c:y val="-0.1805974773986585"/>
+                  <c:x val="0.25533267716535435"/>
+                  <c:y val="-0.74459135316418779"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1274,16 +1376,16 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>57</c:v>
@@ -1297,32 +1399,59 @@
                 <c:pt idx="12">
                   <c:v>75</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
                 <c:pt idx="18">
-                  <c:v>85</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78</c:v>
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -2633,15 +2762,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2668,16 +2797,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2697,6 +2826,29 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Área [m²]" dataDxfId="7"/>
+    <tableColumn id="2" name="Preço do Aluguel [R$]" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Quartos" dataDxfId="4"/>
+    <tableColumn id="2" name="Suítes" dataDxfId="3"/>
+    <tableColumn id="3" name="Vagas na Garagem" dataDxfId="2"/>
+    <tableColumn id="4" name="Área [m²]" dataDxfId="1"/>
+    <tableColumn id="7" name="Preço do Aluguel [R$]" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2998,21 +3150,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3022,10 +3175,10 @@
       <c r="B2" s="1">
         <v>890</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -3043,9 +3196,9 @@
         <v>1980</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
         <v>100</v>
       </c>
     </row>
@@ -3064,15 +3217,15 @@
       <c r="B6" s="1">
         <v>2000</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
         <f>_xlfn.FORECAST.LINEAR(F4,B2:B33,A2:A33)</f>
         <v>4283.879987841563</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3091,14 +3244,14 @@
         <v>1600</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
         <f>LINEST(B2:B33,A2:A33)</f>
         <v>50.166868259142404</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3109,14 +3262,14 @@
         <v>2100</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
         <f>AVERAGE(B2:B33)-F8*AVERAGE(A2:A33)</f>
         <v>-732.80683807267724</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3126,15 +3279,15 @@
       <c r="B10" s="1">
         <v>1900</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8">
         <f>F9+F4*F8</f>
         <v>4283.879987841563</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3161,17 +3314,15 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>90</v>
       </c>
       <c r="B14" s="1">
         <v>2870</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -3329,22 +3480,611 @@
   <sortState ref="A2:B33">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>92</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>112</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11">
+        <v>115</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>116</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>120</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>122</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11">
+        <v>145</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>155</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11">
+        <v>159</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>165</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11">
+        <v>170</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11">
+        <v>175</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11">
+        <v>190</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11">
+        <v>194</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3352,44 +4092,23 @@
     <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="D2">
-        <v>150</v>
-      </c>
-      <c r="E2">
-        <f>_xlfn.FORECAST.LINEAR(D2,B2:B10,A2:A10)</f>
-        <v>41.242044581091463</v>
-      </c>
-      <c r="G2">
-        <f>_xlfn.FORECAST.LINEAR(0,B2:B10,A2:A10)</f>
-        <v>31.868485780169099</v>
-      </c>
-      <c r="H2">
-        <f>LINEST(B2:B10,A2:A10,TRUE)</f>
-        <v>6.2490392006149087E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>24</v>
       </c>
@@ -3397,19 +4116,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="E4">
-        <f>G2+D2*H2</f>
-        <v>41.242044581091463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>47</v>
       </c>
@@ -3417,7 +4132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -3425,15 +4140,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>54</v>
       </c>
@@ -3441,23 +4156,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>55</v>
       </c>
       <c r="B9" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>56</v>
       </c>
       <c r="B10" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>56</v>
       </c>
@@ -3465,7 +4180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>70</v>
       </c>
@@ -3473,7 +4188,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>71</v>
       </c>
@@ -3481,7 +4196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>90</v>
       </c>
@@ -3489,37 +4204,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>100</v>
+      </c>
+      <c r="B16" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>100</v>
       </c>
+      <c r="B17" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>101</v>
       </c>
+      <c r="B18" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>104</v>
       </c>
+      <c r="B19" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>110</v>
       </c>
       <c r="B20" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3527,35 +4257,47 @@
         <v>112</v>
       </c>
       <c r="B21" s="1">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>115</v>
       </c>
+      <c r="B22" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>116</v>
       </c>
+      <c r="B23" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>120</v>
       </c>
+      <c r="B24" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>122</v>
       </c>
+      <c r="B25" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>145</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -3563,7 +4305,7 @@
         <v>155</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -3571,7 +4313,7 @@
         <v>159</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -3579,7 +4321,7 @@
         <v>165</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3587,7 +4329,7 @@
         <v>170</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -3595,7 +4337,7 @@
         <v>175</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3603,7 +4345,7 @@
         <v>190</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">

--- a/01-Prevendo-valores-no-Excel/Apartamentos_Relatorio.xlsx
+++ b/01-Prevendo-valores-no-Excel/Apartamentos_Relatorio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Apartamentos - Simples" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>M²</t>
   </si>
@@ -168,15 +168,28 @@
   <si>
     <t>Suítes</t>
   </si>
+  <si>
+    <t>Prever:</t>
+  </si>
+  <si>
+    <t>Vagas</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +242,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -250,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -267,11 +288,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +340,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3146,6 +3199,34 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="437" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{FF1EF054-40C6-4620-A98A-914B4191077B}">
+  <we:reference id="wa104379638" version="1.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104379638" version="1.0.0.0" store="wa104379638" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="endpoints" value="&quot;[{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/2a951e49ed8d43cfbe3afc68aa6d3878/swagger.json\&quot;,\&quot;token\&quot;:\&quot;xSc38GPprrK3FGyGMn5uQEJVD7wNUZgOn2UZt+vrFLMLFAyqGB+YhkF5o0JH57hfUYuIxZ7so1rf5DQ2nDfdGA==\&quot;,\&quot;serviceName\&quot;:\&quot;Titanic Survivor Predictor (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/odata/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/0153ed4ecce44d999e7846d8f0e8102a\&quot;,\&quot;token\&quot;:\&quot;QR+dXhrglxsnO5WJ4/s0me85cwO+4WF7FcWVoUUSqFwzGyFCYbMIpzYfSaMwkNdNJGGavTDvVTlNbP1gv9Yh9A==\&quot;,\&quot;serviceName\&quot;:\&quot;Text Sentiment Analysis (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://studio.azureml.net/apihelp/workspaces/66940729eee34b3cbd0ad7a8d166cc3f/webservices/c5d10e63c30c40bcae122464973ec333/endpoints/e5b092e76c644f9c9be869bb5f8e266e/score\&quot;,\&quot;token\&quot;:\&quot;NkQd11NEi0lW2ctR04DnUQTv8yY0zlQPzKAM6rP3z8motDqwuQaranX67yyJ3RjCB7HNpMPlTeZXLsr2RtGwPw==\&quot;,\&quot;serviceName\&quot;:\&quot;Apartamentos 01 [Predictive Exp.]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{\&quot;output1\&quot;:{\&quot;id\&quot;:\&quot;'Apartamentos - Multipla'!K6\&quot;,\&quot;includeHeaders\&quot;:false}},\&quot;showOverwriteWarning\&quot;:true,\&quot;inputBindingsAddresses\&quot;:{\&quot;input1\&quot;:{\&quot;bindingAddress\&quot;:\&quot;'Apartamentos - Multipla'!G6:J9\&quot;,\&quot;hasHeaders\&quot;:false}}}]&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="UnnamedBinding_0_1461262394414" type="matrix" appref="{9067955A-BAD9-4D8D-86D8-8DE530DCD771}"/>
+    <we:binding id="UnnamedBinding_1_1461262405238" type="matrix" appref="{81E93BC6-D45B-4313-98A4-54F5C4143A10}"/>
+    <we:binding id="UnnamedBinding_2_1461262405260" type="matrix" appref="{EB2E7B5D-FE72-4836-B572-BCDA994FF728}"/>
+    <we:binding id="'Apartamentos - Multipla'!K6:K9" type="matrix" appref="{8CFA8034-8D8C-4072-B955-31F946190A58}"/>
+    <we:binding id="UnnamedBinding_3_1461262498496" type="matrix" appref="{D0F3CB8E-A8B5-4853-A2DD-1B3AD5E37B2A}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
@@ -3494,10 +3575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3506,9 +3587,12 @@
     <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -3525,7 +3609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3542,7 +3626,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3559,7 +3643,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3575,8 +3659,11 @@
       <c r="E4" s="1">
         <v>1188</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -3592,8 +3679,23 @@
       <c r="E5" s="1">
         <v>890</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3609,8 +3711,21 @@
       <c r="E6" s="1">
         <v>1033</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3626,8 +3741,21 @@
       <c r="E7" s="1">
         <v>1435</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>85</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3643,8 +3771,21 @@
       <c r="E8" s="1">
         <v>1356</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>150</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3660,8 +3801,21 @@
       <c r="E9" s="1">
         <v>1300</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3678,7 +3832,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3695,7 +3849,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -3712,7 +3866,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3729,7 +3883,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3746,7 +3900,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3763,7 +3917,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -4076,6 +4230,27 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{9067955A-BAD9-4D8D-86D8-8DE530DCD771}">
+          <xm:f>'Apartamentos - Multipla'!$G$6:$J$9</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{81E93BC6-D45B-4313-98A4-54F5C4143A10}">
+          <xm:f>'Apartamentos - Multipla'!K6</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{EB2E7B5D-FE72-4836-B572-BCDA994FF728}">
+          <xm:f>'Apartamentos - Multipla'!K6</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{8CFA8034-8D8C-4072-B955-31F946190A58}">
+          <xm:f>'Apartamentos - Multipla'!K6:K9</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{D0F3CB8E-A8B5-4853-A2DD-1B3AD5E37B2A}">
+          <xm:f>'Apartamentos - Multipla'!$G$6:$J$9</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4083,9 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/01-Prevendo-valores-no-Excel/Apartamentos_Relatorio.xlsx
+++ b/01-Prevendo-valores-no-Excel/Apartamentos_Relatorio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Apartamentos - Simples" sheetId="1" r:id="rId1"/>
@@ -337,9 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,6 +345,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3201,7 +3201,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="437" row="2">
+  <wetp:taskpane dockstate="right" visibility="1" width="437" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -3214,7 +3214,7 @@
     <we:reference id="wa104379638" version="1.0.0.0" store="wa104379638" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
-    <we:property name="endpoints" value="&quot;[{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/2a951e49ed8d43cfbe3afc68aa6d3878/swagger.json\&quot;,\&quot;token\&quot;:\&quot;xSc38GPprrK3FGyGMn5uQEJVD7wNUZgOn2UZt+vrFLMLFAyqGB+YhkF5o0JH57hfUYuIxZ7so1rf5DQ2nDfdGA==\&quot;,\&quot;serviceName\&quot;:\&quot;Titanic Survivor Predictor (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/odata/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/0153ed4ecce44d999e7846d8f0e8102a\&quot;,\&quot;token\&quot;:\&quot;QR+dXhrglxsnO5WJ4/s0me85cwO+4WF7FcWVoUUSqFwzGyFCYbMIpzYfSaMwkNdNJGGavTDvVTlNbP1gv9Yh9A==\&quot;,\&quot;serviceName\&quot;:\&quot;Text Sentiment Analysis (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://studio.azureml.net/apihelp/workspaces/66940729eee34b3cbd0ad7a8d166cc3f/webservices/c5d10e63c30c40bcae122464973ec333/endpoints/e5b092e76c644f9c9be869bb5f8e266e/score\&quot;,\&quot;token\&quot;:\&quot;NkQd11NEi0lW2ctR04DnUQTv8yY0zlQPzKAM6rP3z8motDqwuQaranX67yyJ3RjCB7HNpMPlTeZXLsr2RtGwPw==\&quot;,\&quot;serviceName\&quot;:\&quot;Apartamentos 01 [Predictive Exp.]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{\&quot;output1\&quot;:{\&quot;id\&quot;:\&quot;'Apartamentos - Multipla'!K6\&quot;,\&quot;includeHeaders\&quot;:false}},\&quot;showOverwriteWarning\&quot;:true,\&quot;inputBindingsAddresses\&quot;:{\&quot;input1\&quot;:{\&quot;bindingAddress\&quot;:\&quot;'Apartamentos - Multipla'!G6:J9\&quot;,\&quot;hasHeaders\&quot;:false}}}]&quot;"/>
+    <we:property name="endpoints" value="&quot;[{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/2a951e49ed8d43cfbe3afc68aa6d3878/swagger.json\&quot;,\&quot;token\&quot;:\&quot;xSc38GPprrK3FGyGMn5uQEJVD7wNUZgOn2UZt+vrFLMLFAyqGB+YhkF5o0JH57hfUYuIxZ7so1rf5DQ2nDfdGA==\&quot;,\&quot;serviceName\&quot;:\&quot;Titanic Survivor Predictor (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/odata/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/0153ed4ecce44d999e7846d8f0e8102a\&quot;,\&quot;token\&quot;:\&quot;QR+dXhrglxsnO5WJ4/s0me85cwO+4WF7FcWVoUUSqFwzGyFCYbMIpzYfSaMwkNdNJGGavTDvVTlNbP1gv9Yh9A==\&quot;,\&quot;serviceName\&quot;:\&quot;Text Sentiment Analysis (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true}]&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="UnnamedBinding_0_1461262394414" type="matrix" appref="{9067955A-BAD9-4D8D-86D8-8DE530DCD771}"/>
@@ -3222,6 +3222,10 @@
     <we:binding id="UnnamedBinding_2_1461262405260" type="matrix" appref="{EB2E7B5D-FE72-4836-B572-BCDA994FF728}"/>
     <we:binding id="'Apartamentos - Multipla'!K6:K9" type="matrix" appref="{8CFA8034-8D8C-4072-B955-31F946190A58}"/>
     <we:binding id="UnnamedBinding_3_1461262498496" type="matrix" appref="{D0F3CB8E-A8B5-4853-A2DD-1B3AD5E37B2A}"/>
+    <we:binding id="UnnamedBinding_0_1461266951927" type="matrix" appref="{19CBA43A-E8DC-4DA5-8C27-C54FD95183CF}"/>
+    <we:binding id="UnnamedBinding_1_1461266999739" type="matrix" appref="{42B04561-6A0D-4A66-969E-F05BC3638ECB}"/>
+    <we:binding id="UnnamedBinding_2_1461266999762" type="matrix" appref="{54B6D913-A905-485B-9F0F-5BE8B8032681}"/>
+    <we:binding id="UnnamedBinding_3_1461266999837" type="matrix" appref="{EE5F4B49-9D24-482D-B5CB-A00F33F5F7E7}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -3256,10 +3260,10 @@
       <c r="B2" s="1">
         <v>890</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -3577,9 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3659,7 +3661,7 @@
       <c r="E4" s="1">
         <v>1188</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3679,19 +3681,19 @@
       <c r="E5" s="1">
         <v>890</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3723,7 +3725,7 @@
       <c r="J6">
         <v>35</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -3753,7 +3755,7 @@
       <c r="J7">
         <v>85</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -3783,7 +3785,7 @@
       <c r="J8">
         <v>150</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -3813,7 +3815,7 @@
       <c r="J9">
         <v>60</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4248,6 +4250,18 @@
         <x15:webExtension appRef="{D0F3CB8E-A8B5-4853-A2DD-1B3AD5E37B2A}">
           <xm:f>'Apartamentos - Multipla'!$G$6:$J$9</xm:f>
         </x15:webExtension>
+        <x15:webExtension appRef="{19CBA43A-E8DC-4DA5-8C27-C54FD95183CF}">
+          <xm:f>'Apartamentos - Multipla'!$G$6:$J$9</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{42B04561-6A0D-4A66-969E-F05BC3638ECB}">
+          <xm:f>'Apartamentos - Multipla'!K6</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{54B6D913-A905-485B-9F0F-5BE8B8032681}">
+          <xm:f>'Apartamentos - Multipla'!K6</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{EE5F4B49-9D24-482D-B5CB-A00F33F5F7E7}">
+          <xm:f>'Apartamentos - Multipla'!$G$6:$J$9</xm:f>
+        </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>
@@ -4258,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
